--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic50implement/routes_matchpercentage0parallel_number3dynamic50implement34959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic50implement/routes_matchpercentage0parallel_number3dynamic50implement34959.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Truck6</t>
+          <t>Barge28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Truck3</t>
+          <t>Barge9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
